--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/A/10/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/A/10/seed5/result_data_RandomForest.xlsx
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.54420000000001</v>
+        <v>-21.60710000000001</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.12189999999998</v>
+        <v>-21.26719999999999</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-20.3547</v>
+        <v>-20.2503</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.6717</v>
+        <v>-19.6711</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.78440000000001</v>
+        <v>-21.7583</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.7698</v>
+        <v>-21.82999999999999</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.4537</v>
+        <v>-22.446</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.49689999999997</v>
+        <v>-21.42809999999998</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.57209999999998</v>
+        <v>-21.52749999999997</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.7934</v>
+        <v>-21.90219999999999</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.46020000000001</v>
+        <v>-21.4265</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-20.31759999999999</v>
+        <v>-20.19769999999999</v>
       </c>
       <c r="B99" t="n">
         <v>8.42</v>
